--- a/docs/assets/excels/preworknote.xlsx
+++ b/docs/assets/excels/preworknote.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JokerAtBaoFeng/Documents/blog/assets/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JokerAtBaoFeng/Documents/Joker-s-Blog/docs/assets/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +299,10 @@
   </si>
   <si>
     <t>加班半天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这段时间有点心不在焉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,6 +454,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104:H105"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1775,7 +1785,7 @@
         <v>0.35694444444444445</v>
       </c>
       <c r="G47" s="21">
-        <f t="shared" ref="G47:G105" si="3">F47-B47</f>
+        <f t="shared" ref="G47:G110" si="3">F47-B47</f>
         <v>2.9861111111111116E-2</v>
       </c>
       <c r="H47" t="s">
@@ -3031,9 +3041,79 @@
         <v>37</v>
       </c>
     </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="22">
+        <v>42873</v>
+      </c>
+      <c r="G106" s="21"/>
+      <c r="H106" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="22">
+        <v>42874</v>
+      </c>
+      <c r="G107" s="21"/>
+      <c r="H107" s="29"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="22">
+        <v>42875</v>
+      </c>
+      <c r="G108" s="21"/>
+      <c r="H108" s="29"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="22">
+        <v>42876</v>
+      </c>
+      <c r="G109" s="21"/>
+      <c r="H109" s="29"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="22">
+        <v>42877</v>
+      </c>
+      <c r="G110" s="21"/>
+      <c r="H110" s="29"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="22">
+        <v>42878</v>
+      </c>
+      <c r="G111" s="21"/>
+      <c r="H111" s="29"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="22">
+        <v>42879</v>
+      </c>
+      <c r="B112" s="21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C112" s="21">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="D112" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E112" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F112" s="21">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="G112" s="21">
+        <f t="shared" ref="G111:G112" si="4">F112-B112</f>
+        <v>2.7083333333333348E-2</v>
+      </c>
+      <c r="H112" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B4:H4"/>
+    <mergeCell ref="H106:H111"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/assets/excels/preworknote.xlsx
+++ b/docs/assets/excels/preworknote.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,7 +438,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -454,12 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -838,15 +838,15 @@
       <c r="A4" s="1">
         <v>42771</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
@@ -1785,7 +1785,7 @@
         <v>0.35694444444444445</v>
       </c>
       <c r="G47" s="21">
-        <f t="shared" ref="G47:G110" si="3">F47-B47</f>
+        <f t="shared" ref="G47:G105" si="3">F47-B47</f>
         <v>2.9861111111111116E-2</v>
       </c>
       <c r="H47" t="s">
@@ -3046,7 +3046,7 @@
         <v>42873</v>
       </c>
       <c r="G106" s="21"/>
-      <c r="H106" s="29" t="s">
+      <c r="H106" s="25" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3055,35 +3055,35 @@
         <v>42874</v>
       </c>
       <c r="G107" s="21"/>
-      <c r="H107" s="29"/>
+      <c r="H107" s="25"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="22">
         <v>42875</v>
       </c>
       <c r="G108" s="21"/>
-      <c r="H108" s="29"/>
+      <c r="H108" s="25"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="22">
         <v>42876</v>
       </c>
       <c r="G109" s="21"/>
-      <c r="H109" s="29"/>
+      <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="22">
         <v>42877</v>
       </c>
       <c r="G110" s="21"/>
-      <c r="H110" s="29"/>
+      <c r="H110" s="25"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="22">
         <v>42878</v>
       </c>
       <c r="G111" s="21"/>
-      <c r="H111" s="29"/>
+      <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="22">
@@ -3105,10 +3105,39 @@
         <v>0.36041666666666666</v>
       </c>
       <c r="G112" s="21">
-        <f t="shared" ref="G111:G112" si="4">F112-B112</f>
+        <f t="shared" ref="G112:G113" si="4">F112-B112</f>
         <v>2.7083333333333348E-2</v>
       </c>
-      <c r="H112" s="30"/>
+      <c r="H112" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="22">
+        <v>42880</v>
+      </c>
+      <c r="B113" s="21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C113" s="21">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D113" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E113" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F113" s="21">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="G113" s="21">
+        <f t="shared" si="4"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="H113" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3191,7 +3220,7 @@
         <v>5.1388888888888928E-2</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="26" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3219,7 +3248,7 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="24"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -3245,7 +3274,7 @@
         <v>2.2916666666666696E-2</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="24"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -3271,48 +3300,48 @@
         <v>4.5833333333333393E-2</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="24"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42735</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="24"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42370</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42371</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="24"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -3338,7 +3367,7 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="24"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -3364,7 +3393,7 @@
         <v>2.5694444444444464E-2</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="24"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -3390,7 +3419,7 @@
         <v>3.1944444444444442E-2</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="24"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -3416,35 +3445,35 @@
         <v>2.5694444444444464E-2</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="24"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42742</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="24"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42743</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="24"/>
+      <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -3470,7 +3499,7 @@
         <v>5.2083333333333315E-2</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="24"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -3498,7 +3527,7 @@
       <c r="H16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="24"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -3524,7 +3553,7 @@
         <v>2.9166666666666674E-2</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="26"/>
     </row>
     <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -3550,7 +3579,7 @@
         <v>2.8472222222222232E-2</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="24"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -3576,35 +3605,35 @@
         <v>3.125E-2</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42749</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="I20" s="24"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42750</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="I21" s="24"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -3630,7 +3659,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="24"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -3656,7 +3685,7 @@
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="24"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -3682,7 +3711,7 @@
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="24"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -3708,7 +3737,7 @@
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="H25" s="11"/>
-      <c r="I25" s="24"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -3736,7 +3765,7 @@
       <c r="H26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="24"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -3764,7 +3793,7 @@
       <c r="H27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="24"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -3792,7 +3821,7 @@
       <c r="H28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="24"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -3820,135 +3849,135 @@
       <c r="H29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="24"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42759</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="24"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42760</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="24"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42761</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="24"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42762</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="24"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="26"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42763</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="24"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42764</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42765</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42766</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42767</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42768</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/assets/excels/preworknote.xlsx
+++ b/docs/assets/excels/preworknote.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,22 @@
   </si>
   <si>
     <t>这段时间有点心不在焉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡了一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和新总五道口逛一下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宅一天，看REST API和Swift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有你单车上班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,6 +452,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -738,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -838,15 +857,15 @@
       <c r="A4" s="1">
         <v>42771</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
@@ -3046,7 +3065,7 @@
         <v>42873</v>
       </c>
       <c r="G106" s="21"/>
-      <c r="H106" s="25" t="s">
+      <c r="H106" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3055,35 +3074,35 @@
         <v>42874</v>
       </c>
       <c r="G107" s="21"/>
-      <c r="H107" s="25"/>
+      <c r="H107" s="26"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="22">
         <v>42875</v>
       </c>
       <c r="G108" s="21"/>
-      <c r="H108" s="25"/>
+      <c r="H108" s="26"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="22">
         <v>42876</v>
       </c>
       <c r="G109" s="21"/>
-      <c r="H109" s="25"/>
+      <c r="H109" s="26"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="22">
         <v>42877</v>
       </c>
       <c r="G110" s="21"/>
-      <c r="H110" s="25"/>
+      <c r="H110" s="26"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="22">
         <v>42878</v>
       </c>
       <c r="G111" s="21"/>
-      <c r="H111" s="25"/>
+      <c r="H111" s="26"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="22">
@@ -3137,6 +3156,114 @@
       </c>
       <c r="H113" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="22">
+        <v>42881</v>
+      </c>
+      <c r="B114" s="21">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C114" s="21">
+        <v>0.34375</v>
+      </c>
+      <c r="D114" s="21">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="E114" s="21">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="F114" s="21">
+        <v>0.35486111111111102</v>
+      </c>
+      <c r="G114" s="21">
+        <f t="shared" ref="G114:G119" si="5">F114-B114</f>
+        <v>2.1527777777778034E-2</v>
+      </c>
+      <c r="H114" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="22">
+        <v>42882</v>
+      </c>
+      <c r="B115" s="21">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C115" s="21">
+        <v>0.34722222222222199</v>
+      </c>
+      <c r="D115" s="21">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="E115" s="21">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="F115" s="21">
+        <v>0.35208333333333303</v>
+      </c>
+      <c r="G115" s="21">
+        <f t="shared" si="5"/>
+        <v>1.8750000000000044E-2</v>
+      </c>
+      <c r="H115" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="22">
+        <v>42883</v>
+      </c>
+      <c r="G116" s="21"/>
+      <c r="H116" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="22">
+        <v>42884</v>
+      </c>
+      <c r="G117" s="21"/>
+      <c r="H117" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="22">
+        <v>42885</v>
+      </c>
+      <c r="G118" s="21"/>
+      <c r="H118" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="22">
+        <v>42886</v>
+      </c>
+      <c r="B119" s="21">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="C119" s="21">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D119" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E119" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F119" s="21">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="G119" s="21">
+        <f t="shared" si="5"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H119" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3220,7 +3347,7 @@
         <v>5.1388888888888928E-2</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3248,7 +3375,7 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="26"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -3274,7 +3401,7 @@
         <v>2.2916666666666696E-2</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="26"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -3300,48 +3427,48 @@
         <v>4.5833333333333393E-2</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="26"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42735</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="26"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42370</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="26"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42371</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="26"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -3367,7 +3494,7 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="26"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -3393,7 +3520,7 @@
         <v>2.5694444444444464E-2</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="26"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -3419,7 +3546,7 @@
         <v>3.1944444444444442E-2</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="26"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -3445,35 +3572,35 @@
         <v>2.5694444444444464E-2</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="26"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42742</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="26"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42743</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="26"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -3499,7 +3626,7 @@
         <v>5.2083333333333315E-2</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="26"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -3527,7 +3654,7 @@
       <c r="H16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="26"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -3553,7 +3680,7 @@
         <v>2.9166666666666674E-2</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="26"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -3579,7 +3706,7 @@
         <v>2.8472222222222232E-2</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="26"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -3605,35 +3732,35 @@
         <v>3.125E-2</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="26"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42749</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="I20" s="26"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42750</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="I21" s="26"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -3659,7 +3786,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="26"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -3685,7 +3812,7 @@
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="26"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -3711,7 +3838,7 @@
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="26"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -3737,7 +3864,7 @@
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="H25" s="11"/>
-      <c r="I25" s="26"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -3765,7 +3892,7 @@
       <c r="H26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -3793,7 +3920,7 @@
       <c r="H27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="26"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -3821,7 +3948,7 @@
       <c r="H28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="26"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -3849,135 +3976,135 @@
       <c r="H29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="26"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42759</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="26"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="27"/>
     </row>
     <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42760</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="26"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42761</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="26"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42762</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="26"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42763</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="26"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="27"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42764</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42765</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42766</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42767</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42768</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/assets/excels/preworknote.xlsx
+++ b/docs/assets/excels/preworknote.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>有你单车上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打了一夜王者荣耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了一天一夜电视剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蓝车上班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,6 +781,7 @@
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="91.83203125" customWidth="1"/>
     <col min="9" max="9" width="54.1640625" customWidth="1"/>
   </cols>
@@ -3178,7 +3191,7 @@
         <v>0.35486111111111102</v>
       </c>
       <c r="G114" s="21">
-        <f t="shared" ref="G114:G119" si="5">F114-B114</f>
+        <f t="shared" ref="G114:G124" si="5">F114-B114</f>
         <v>2.1527777777778034E-2</v>
       </c>
       <c r="H114" s="24" t="s">
@@ -3264,6 +3277,105 @@
       </c>
       <c r="H119" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="22">
+        <v>42887</v>
+      </c>
+      <c r="B120" s="21">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C120" s="21">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="D120" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E120" s="21">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="F120" s="21">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="G120" s="21">
+        <f t="shared" si="5"/>
+        <v>3.0555555555555503E-2</v>
+      </c>
+      <c r="H120" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="22">
+        <v>42888</v>
+      </c>
+      <c r="B121" s="21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C121" s="21">
+        <v>0.34375</v>
+      </c>
+      <c r="D121" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E121" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F121" s="21">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="G121" s="21">
+        <f t="shared" si="5"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H121" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="22">
+        <v>42889</v>
+      </c>
+      <c r="G122" s="21"/>
+      <c r="H122" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="22">
+        <v>42890</v>
+      </c>
+      <c r="G123" s="21"/>
+      <c r="H123" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="22">
+        <v>42891</v>
+      </c>
+      <c r="B124" s="21">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C124" s="21">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="D124" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E124" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F124" s="21">
+        <v>0.31875000000000003</v>
+      </c>
+      <c r="G124" s="21">
+        <f t="shared" si="5"/>
+        <v>2.7083333333333348E-2</v>
+      </c>
+      <c r="H124" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/excels/preworknote.xlsx
+++ b/docs/assets/excels/preworknote.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +331,10 @@
   </si>
   <si>
     <t>小蓝车上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下雨、公交、ofo，差迟到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3191,7 +3195,7 @@
         <v>0.35486111111111102</v>
       </c>
       <c r="G114" s="21">
-        <f t="shared" ref="G114:G124" si="5">F114-B114</f>
+        <f t="shared" ref="G114:G126" si="5">F114-B114</f>
         <v>2.1527777777778034E-2</v>
       </c>
       <c r="H114" s="24" t="s">
@@ -3375,6 +3379,60 @@
         <v>2.7083333333333348E-2</v>
       </c>
       <c r="H124" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="22">
+        <v>42892</v>
+      </c>
+      <c r="B125" s="21">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C125" s="21">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D125" s="21">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="E125" s="21">
+        <v>0</v>
+      </c>
+      <c r="F125" s="21">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G125" s="21">
+        <f t="shared" si="5"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H125" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="22">
+        <v>42893</v>
+      </c>
+      <c r="B126" s="21">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C126" s="21">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="D126" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E126" s="21">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="F126" s="21">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="G126" s="21">
+        <f t="shared" si="5"/>
+        <v>2.5694444444444464E-2</v>
+      </c>
+      <c r="H126" t="s">
         <v>75</v>
       </c>
     </row>

--- a/docs/assets/excels/preworknote.xlsx
+++ b/docs/assets/excels/preworknote.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -773,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+      <selection activeCell="H127" sqref="H127:H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3195,7 +3195,7 @@
         <v>0.35486111111111102</v>
       </c>
       <c r="G114" s="21">
-        <f t="shared" ref="G114:G126" si="5">F114-B114</f>
+        <f t="shared" ref="G114:G128" si="5">F114-B114</f>
         <v>2.1527777777778034E-2</v>
       </c>
       <c r="H114" s="24" t="s">
@@ -3433,6 +3433,60 @@
         <v>2.5694444444444464E-2</v>
       </c>
       <c r="H126" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="22">
+        <v>42894</v>
+      </c>
+      <c r="B127" s="21">
+        <v>0.3125</v>
+      </c>
+      <c r="C127" s="21">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D127" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E127" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F127" s="21">
+        <v>0.34375</v>
+      </c>
+      <c r="G127" s="21">
+        <f t="shared" si="5"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H127" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="22">
+        <v>42895</v>
+      </c>
+      <c r="B128" s="21">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C128" s="21">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D128" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E128" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F128" s="21">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="G128" s="21">
+        <f t="shared" si="5"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H128" t="s">
         <v>75</v>
       </c>
     </row>

--- a/docs/assets/excels/preworknote.xlsx
+++ b/docs/assets/excels/preworknote.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t>下雨、公交、ofo，差迟到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班一天写报数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宅一天看WWDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天十渡iOS研发测试团队建设</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127:H128"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3195,7 +3207,7 @@
         <v>0.35486111111111102</v>
       </c>
       <c r="G114" s="21">
-        <f t="shared" ref="G114:G128" si="5">F114-B114</f>
+        <f t="shared" ref="G114:G134" si="5">F114-B114</f>
         <v>2.1527777777778034E-2</v>
       </c>
       <c r="H114" s="24" t="s">
@@ -3488,6 +3500,140 @@
       </c>
       <c r="H128" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="22">
+        <v>42896</v>
+      </c>
+      <c r="G129" s="21"/>
+      <c r="H129" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="22">
+        <v>42897</v>
+      </c>
+      <c r="G130" s="21"/>
+      <c r="H130" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="22">
+        <v>42898</v>
+      </c>
+      <c r="B131" s="21">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C131" s="21">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="D131" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E131" s="21">
+        <v>0</v>
+      </c>
+      <c r="F131" s="21">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="G131" s="21">
+        <f t="shared" si="5"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H131" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="22">
+        <v>42899</v>
+      </c>
+      <c r="B132" s="21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C132" s="21">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D132" s="21">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E132" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F132" s="21">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="G132" s="21">
+        <f t="shared" si="5"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H132" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="22">
+        <v>42900</v>
+      </c>
+      <c r="B133" s="21">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C133" s="21">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="D133" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E133" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F133" s="21">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="G133" s="21">
+        <f t="shared" si="5"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="H133" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="22">
+        <v>42901</v>
+      </c>
+      <c r="B134" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="C134" s="21">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="D134" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E134" s="21">
+        <v>0</v>
+      </c>
+      <c r="F134" s="21">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G134" s="21">
+        <f t="shared" si="5"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="22">
+        <v>42902</v>
+      </c>
+      <c r="H135" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/excels/preworknote.xlsx
+++ b/docs/assets/excels/preworknote.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,14 @@
   </si>
   <si>
     <t>今天十渡iOS研发测试团队建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蓝车上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ofo上班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,10 +793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3207,7 +3216,7 @@
         <v>0.35486111111111102</v>
       </c>
       <c r="G114" s="21">
-        <f t="shared" ref="G114:G134" si="5">F114-B114</f>
+        <f t="shared" ref="G114:G140" si="5">F114-B114</f>
         <v>2.1527777777778034E-2</v>
       </c>
       <c r="H114" s="24" t="s">
@@ -3632,8 +3641,102 @@
       <c r="A135" s="22">
         <v>42902</v>
       </c>
+      <c r="G135" s="21"/>
       <c r="H135" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="22">
+        <v>42903</v>
+      </c>
+      <c r="G136" s="21"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="22">
+        <v>42904</v>
+      </c>
+      <c r="G137" s="21"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="22">
+        <v>42905</v>
+      </c>
+      <c r="B138" s="21">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C138" s="21">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D138" s="21">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="E138" s="21">
+        <v>0</v>
+      </c>
+      <c r="F138" s="21">
+        <v>0.3125</v>
+      </c>
+      <c r="G138" s="21">
+        <f t="shared" si="5"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H138" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="22">
+        <v>42906</v>
+      </c>
+      <c r="B139" s="21">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C139" s="21">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="D139" s="21">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E139" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F139" s="21">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="G139" s="21">
+        <f t="shared" si="5"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="H139" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="22">
+        <v>42907</v>
+      </c>
+      <c r="B140" s="21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C140" s="21">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D140" s="21">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="E140" s="21">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F140" s="21">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="G140" s="21">
+        <f t="shared" si="5"/>
+        <v>2.8472222222222232E-2</v>
+      </c>
+      <c r="H140" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
